--- a/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
+++ b/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="198" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92AA4ACA-A185-4AEB-9011-45F85F9468A3}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8953274B-F535-4434-87B2-520639E2E1DB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -109,7 +109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="1028700"/>
-          <a:ext cx="12677775" cy="5495925"/>
+          <a:ext cx="13363575" cy="5495925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -908,8 +908,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
@@ -930,7 +930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7162800" y="3600450"/>
-          <a:ext cx="5838825" cy="723900"/>
+          <a:ext cx="6610350" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,7 +1066,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setMajor( updates : Map&lt;String, String&gt; managerId : Integer )</a:t>
+            <a:t>setMajor( majorId : int, updates : Map&lt;String, String&gt; managerId : Integer )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
+++ b/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="201" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8953274B-F535-4434-87B2-520639E2E1DB}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208FE5DB-8CDE-4DEC-AD9F-A113E6A6B484}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1066,7 +1066,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>setMajor( majorId : int, updates : Map&lt;String, String&gt; managerId : Integer )</a:t>
+            <a:t>setMajor( id : int, updates : Map&lt;String, String&gt;, managerId : Integer )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A8633E-387F-40CD-BD90-4057C77280B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
+++ b/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208FE5DB-8CDE-4DEC-AD9F-A113E6A6B484}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CCC7160-E985-41E7-9C63-381788273B59}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MajorService" sheetId="2" r:id="rId1"/>
+    <sheet name="ManagerService" sheetId="3" r:id="rId1"/>
+    <sheet name="MajorService" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -81,6 +82,444 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353DE689-9EE8-456C-883C-E39F18C5C54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1028700"/>
+          <a:ext cx="13363575" cy="5495925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ManagerService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6594E015-E65F-4591-A626-CB84412A1EAE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{353DE689-9EE8-456C-883C-E39F18C5C54D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="2543175"/>
+          <a:ext cx="3733800" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getManagerByEmail( email : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r Manager</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7C34A3-F3F4-47F2-9EE9-2D01DFCAD0AC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B33B44B8-8D88-4C03-B034-B41126A74F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="2057400"/>
+          <a:ext cx="3238500" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repository : ManagersRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1759,10 +2198,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A765FEE8-F766-4C1E-B7E2-E8198E64B2D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A8633E-387F-40CD-BD90-4057C77280B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>

--- a/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
+++ b/class_diagram/service/manager/成績管理sys_クラス図_service_manager.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="222" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CCC7160-E985-41E7-9C63-381788273B59}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_fri_sys\seiseki_manage_sys\class_diagram\service\manager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB110E73-D601-408B-AFCE-4F5FC9A78A72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ManagerService" sheetId="3" r:id="rId1"/>
@@ -21,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,12 +38,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1873,6 +1885,370 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>repository : MajorsRepository</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B8DEF1-181D-4D97-8C48-6DA6ED770C70}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E87078A1-8E3A-49C1-846B-D429949B8B56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="2943225"/>
+          <a:ext cx="3295650" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getMajorByName( name : String )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>-r Major</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F7113C-616A-4865-9774-F76922E5294A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FC8E4C68-D300-40F1-9FCF-24B0DAF25138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="2438400"/>
+          <a:ext cx="2733675" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>mapper</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : DozerBeanMapper</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2201,14 +2577,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A765FEE8-F766-4C1E-B7E2-E8198E64B2D8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2216,12 +2594,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A8633E-387F-40CD-BD90-4057C77280B7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
